--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health procedures specific to outerspace environment.</t>
+    <t>STUB - Health procedures specific to outerspace environment.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -493,7 +493,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(Procedure|4.0.1|Observation|4.0.1|MedicationAdministration|4.0.1)
 </t>
   </si>
   <si>
@@ -630,7 +630,7 @@
     <t>A code that identifies the reason a procedure was not performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -651,7 +651,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -679,7 +679,7 @@
     <t>A code to identify a specific procedure .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -701,7 +701,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -726,7 +726,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -907,7 +907,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -935,7 +935,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -954,7 +954,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
     <t>A code that identifies the reason a procedure is  required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1003,7 +1003,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1059,7 +1059,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1068,7 +1068,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
 </t>
   </si>
   <si>
@@ -1099,7 +1099,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1108,7 +1108,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1133,7 +1133,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1194,7 +1194,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1203,7 +1203,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1219,7 +1219,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference(Device|4.0.1|Medication|4.0.1|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1251,7 +1251,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
+    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1578,7 +1578,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.9296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1593,7 +1593,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.22265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.3984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceProcedure.xlsx
+++ b/docs/StructureDefinition-SpaceProcedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
